--- a/arc to base64 mapping.xlsx
+++ b/arc to base64 mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joopringelberg/Code/language-perspectives-arcII/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C344E9B-F005-5341-BDFE-7E196198CBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCAE1D-4C8A-3844-9E33-94E8A06E4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1460" windowWidth="33600" windowHeight="17440" xr2:uid="{E82C1F60-9EE4-AF41-90C6-F655F9997DDC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>ARC CATEGORY</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>11 categories</t>
-  </si>
-  <si>
     <t>base00 - Default Background</t>
   </si>
   <si>
@@ -293,16 +290,32 @@
   </si>
   <si>
     <t>base04</t>
+  </si>
+  <si>
+    <t>COLOR GROUP</t>
+  </si>
+  <si>
+    <t>BASE64</t>
+  </si>
+  <si>
+    <t>niet gemapped voor TextMate, probeer base03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,10 +355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BEEFAF-A0F8-1C42-9F74-10A5DFB09ECB}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -676,13 +690,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -695,10 +714,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,35 +728,23 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -752,11 +756,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
+      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,19 +774,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -795,10 +793,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,10 +807,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,9 +817,6 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -836,9 +825,6 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -847,9 +833,6 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -858,17 +841,11 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -881,10 +858,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,8 +918,11 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
-        <v>83</v>
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,7 +936,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,7 +958,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,9 +977,84 @@
         <v>44</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
